--- a/Code/Results/Cases/Case_3_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9387758283482128</v>
+        <v>0.9180432866803869</v>
       </c>
       <c r="C2">
-        <v>0.1041606607680023</v>
+        <v>0.1097131679421821</v>
       </c>
       <c r="D2">
-        <v>0.02465950234588377</v>
+        <v>0.06588484050381638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.905504753152854</v>
+        <v>3.202136094421334</v>
       </c>
       <c r="G2">
-        <v>1.631144924672967</v>
+        <v>2.454686398660058</v>
       </c>
       <c r="H2">
-        <v>1.074491288943818</v>
+        <v>2.000327881350913</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1179444102385112</v>
+        <v>0.2631755003609335</v>
       </c>
       <c r="K2">
-        <v>0.7447049521592817</v>
+        <v>0.4514623245620726</v>
       </c>
       <c r="L2">
-        <v>0.1384684339307185</v>
+        <v>0.2858766676266171</v>
       </c>
       <c r="M2">
-        <v>0.1977583700712877</v>
+        <v>0.2582246334812339</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8239020798612557</v>
+        <v>0.893301933005489</v>
       </c>
       <c r="C3">
-        <v>0.1004881605130095</v>
+        <v>0.1081995496284662</v>
       </c>
       <c r="D3">
-        <v>0.02229685657047753</v>
+        <v>0.06566430498912013</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.846111975872432</v>
+        <v>3.198259940160511</v>
       </c>
       <c r="G3">
-        <v>1.575043948844851</v>
+        <v>2.448282934897591</v>
       </c>
       <c r="H3">
-        <v>1.056012227710141</v>
+        <v>2.002215772316163</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.118725534363378</v>
+        <v>0.2640221064714581</v>
       </c>
       <c r="K3">
-        <v>0.6455039291623734</v>
+        <v>0.4273106364189232</v>
       </c>
       <c r="L3">
-        <v>0.1286622534649595</v>
+        <v>0.2849207388460755</v>
       </c>
       <c r="M3">
-        <v>0.1760861002154499</v>
+        <v>0.2541460332465988</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7541901063462717</v>
+        <v>0.8786210122522107</v>
       </c>
       <c r="C4">
-        <v>0.09821888111302002</v>
+        <v>0.1072459505235557</v>
       </c>
       <c r="D4">
-        <v>0.02086321707637495</v>
+        <v>0.06555386845751698</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.811905561408508</v>
+        <v>3.196985381724474</v>
       </c>
       <c r="G4">
-        <v>1.542658490459274</v>
+        <v>2.44525684978791</v>
       </c>
       <c r="H4">
-        <v>1.045828069448646</v>
+        <v>2.003975794872446</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1192849944222232</v>
+        <v>0.2645914505129063</v>
       </c>
       <c r="K4">
-        <v>0.5850846242182541</v>
+        <v>0.4127471068864139</v>
       </c>
       <c r="L4">
-        <v>0.1227877232494521</v>
+        <v>0.2844446862116214</v>
       </c>
       <c r="M4">
-        <v>0.1629722665005069</v>
+        <v>0.2517722038863468</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7259683049496175</v>
+        <v>0.8727671823033631</v>
       </c>
       <c r="C5">
-        <v>0.0972899095912112</v>
+        <v>0.1068512432897997</v>
       </c>
       <c r="D5">
-        <v>0.02028305741803749</v>
+        <v>0.06551517721165823</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.798507573947063</v>
+        <v>3.196744162014198</v>
       </c>
       <c r="G5">
-        <v>1.529952552590373</v>
+        <v>2.4442514707915</v>
       </c>
       <c r="H5">
-        <v>1.041958051423208</v>
+        <v>2.004844245172976</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1195326596659179</v>
+        <v>0.2648359365946398</v>
       </c>
       <c r="K5">
-        <v>0.5605699962864321</v>
+        <v>0.4068794218680836</v>
       </c>
       <c r="L5">
-        <v>0.1204286794848741</v>
+        <v>0.2842786553075669</v>
       </c>
       <c r="M5">
-        <v>0.157672910173833</v>
+        <v>0.2508377539848219</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7212927906493007</v>
+        <v>0.8718029480216387</v>
       </c>
       <c r="C6">
-        <v>0.09713538247059361</v>
+        <v>0.10678533312824</v>
       </c>
       <c r="D6">
-        <v>0.02018696136740417</v>
+        <v>0.06550913479170717</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.796314783311232</v>
+        <v>3.196720914783256</v>
       </c>
       <c r="G6">
-        <v>1.527871665900406</v>
+        <v>2.444098286594283</v>
       </c>
       <c r="H6">
-        <v>1.041332015133193</v>
+        <v>2.004997588495513</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1195749617549708</v>
+        <v>0.2648772873077334</v>
       </c>
       <c r="K6">
-        <v>0.5565053404620244</v>
+        <v>0.4059091558585379</v>
       </c>
       <c r="L6">
-        <v>0.12003901316384</v>
+        <v>0.2842527773399581</v>
       </c>
       <c r="M6">
-        <v>0.156795542413775</v>
+        <v>0.250684579699108</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7538087681912486</v>
+        <v>0.8785415435209813</v>
       </c>
       <c r="C7">
-        <v>0.09820637055190318</v>
+        <v>0.1072406521122424</v>
       </c>
       <c r="D7">
-        <v>0.02085537668391524</v>
+        <v>0.06555332105076417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.81172271408893</v>
+        <v>3.196981001970713</v>
       </c>
       <c r="G7">
-        <v>1.542485178386471</v>
+        <v>2.44524236859769</v>
       </c>
       <c r="H7">
-        <v>1.045774758364374</v>
+        <v>2.003986894608232</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192882553444825</v>
+        <v>0.2645946972049344</v>
       </c>
       <c r="K7">
-        <v>0.5847536004651204</v>
+        <v>0.4126677013195348</v>
       </c>
       <c r="L7">
-        <v>0.1227557696658295</v>
+        <v>0.2844423337272275</v>
       </c>
       <c r="M7">
-        <v>0.1629006217811124</v>
+        <v>0.2517594682008522</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8989844932550852</v>
+        <v>0.9094067859004724</v>
       </c>
       <c r="C8">
-        <v>0.1028969772302091</v>
+        <v>0.109196292399858</v>
       </c>
       <c r="D8">
-        <v>0.02384118591885098</v>
+        <v>0.06580363609417716</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.884540015804347</v>
+        <v>3.200570284528737</v>
       </c>
       <c r="G8">
-        <v>1.611356968411243</v>
+        <v>2.452290529001488</v>
       </c>
       <c r="H8">
-        <v>1.067871013525959</v>
+        <v>2.000854199859575</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.118196923524728</v>
+        <v>0.2634571435683917</v>
       </c>
       <c r="K8">
-        <v>0.7103882859038038</v>
+        <v>0.4430798207154112</v>
       </c>
       <c r="L8">
-        <v>0.1350556343703744</v>
+        <v>0.2855240947277338</v>
       </c>
       <c r="M8">
-        <v>0.1902432817546149</v>
+        <v>0.2567913171762228</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.19116789028061</v>
+        <v>0.9739685960793167</v>
       </c>
       <c r="C9">
-        <v>0.1120117136104213</v>
+        <v>0.1128398158241239</v>
       </c>
       <c r="D9">
-        <v>0.02984281209420203</v>
+        <v>0.06649130356065314</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.046587959649912</v>
+        <v>3.216373924029241</v>
       </c>
       <c r="G9">
-        <v>1.76406234449729</v>
+        <v>2.47329939836996</v>
       </c>
       <c r="H9">
-        <v>1.12100781696185</v>
+        <v>1.99947364459203</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1167094832701281</v>
+        <v>0.2616184758400806</v>
       </c>
       <c r="K9">
-        <v>0.9614631471382893</v>
+        <v>0.5048185409211499</v>
       </c>
       <c r="L9">
-        <v>0.1604339606727763</v>
+        <v>0.2885221836083858</v>
       </c>
       <c r="M9">
-        <v>0.2455843774918449</v>
+        <v>0.2676901259333775</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.411887051689405</v>
+        <v>1.023849240943576</v>
       </c>
       <c r="C10">
-        <v>0.1187038900197805</v>
+        <v>0.1154012388522574</v>
       </c>
       <c r="D10">
-        <v>0.03435910736702397</v>
+        <v>0.06711482742188934</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.179352381312285</v>
+        <v>3.23332507531299</v>
       </c>
       <c r="G10">
-        <v>1.88895911681513</v>
+        <v>2.493122653842988</v>
       </c>
       <c r="H10">
-        <v>1.166904502994868</v>
+        <v>2.001358156822192</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1160430383656816</v>
+        <v>0.2605054587836939</v>
       </c>
       <c r="K10">
-        <v>1.150029382059216</v>
+        <v>0.5514538885432501</v>
       </c>
       <c r="L10">
-        <v>0.1799913202727694</v>
+        <v>0.2912557662025108</v>
       </c>
       <c r="M10">
-        <v>0.2875816968522358</v>
+        <v>0.2763225260437068</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.513972306928736</v>
+        <v>1.047070331969167</v>
       </c>
       <c r="C11">
-        <v>0.1217589055591333</v>
+        <v>0.1165417030788731</v>
       </c>
       <c r="D11">
-        <v>0.03644126036836326</v>
+        <v>0.06742382716736728</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.243204227433807</v>
+        <v>3.242195834615899</v>
       </c>
       <c r="G11">
-        <v>1.949008194881912</v>
+        <v>2.503095257227642</v>
       </c>
       <c r="H11">
-        <v>1.189486403198373</v>
+        <v>2.002844082862538</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1158393289665227</v>
+        <v>0.2600505227899959</v>
       </c>
       <c r="K11">
-        <v>1.237003632968793</v>
+        <v>0.5729459560070325</v>
       </c>
       <c r="L11">
-        <v>0.1891215517224651</v>
+        <v>0.2926139002693944</v>
       </c>
       <c r="M11">
-        <v>0.3070479053625874</v>
+        <v>0.2803846550611766</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.552903194861159</v>
+        <v>1.05593946510001</v>
       </c>
       <c r="C12">
-        <v>0.1229183605008188</v>
+        <v>0.1169700279813739</v>
       </c>
       <c r="D12">
-        <v>0.0372340877790478</v>
+        <v>0.06754445283610977</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.267923607676053</v>
+        <v>3.245721591507831</v>
       </c>
       <c r="G12">
-        <v>1.972254945317502</v>
+        <v>2.507008986465223</v>
       </c>
       <c r="H12">
-        <v>1.198301916113337</v>
+        <v>2.003497063917024</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1157771196537603</v>
+        <v>0.2598856193219845</v>
       </c>
       <c r="K12">
-        <v>1.270137326509087</v>
+        <v>0.5811241661692748</v>
       </c>
       <c r="L12">
-        <v>0.1926156583014631</v>
+        <v>0.2931446013589891</v>
       </c>
       <c r="M12">
-        <v>0.3144775146556498</v>
+        <v>0.2819422375971286</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.544506032825439</v>
+        <v>1.054025973625215</v>
       </c>
       <c r="C13">
-        <v>0.1226685182899203</v>
+        <v>0.1168779379621654</v>
       </c>
       <c r="D13">
-        <v>0.03706313776510228</v>
+        <v>0.06751831370416994</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.262575103113093</v>
+        <v>3.24495484988212</v>
       </c>
       <c r="G13">
-        <v>1.967225054925791</v>
+        <v>2.506159987363446</v>
       </c>
       <c r="H13">
-        <v>1.196391260392943</v>
+        <v>2.003352418635075</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1157898429126192</v>
+        <v>0.2599208066900971</v>
       </c>
       <c r="K13">
-        <v>1.262992118133923</v>
+        <v>0.5793610838319978</v>
       </c>
       <c r="L13">
-        <v>0.1918614560103933</v>
+        <v>0.2930295769647628</v>
       </c>
       <c r="M13">
-        <v>0.3128747233839064</v>
+        <v>0.281605925656514</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.517169501933978</v>
+        <v>1.047798483957166</v>
       </c>
       <c r="C14">
-        <v>0.1218542364016031</v>
+        <v>0.1165770125799028</v>
       </c>
       <c r="D14">
-        <v>0.03650639703080572</v>
+        <v>0.06743367886205931</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.245226822551942</v>
+        <v>3.242482562877058</v>
       </c>
       <c r="G14">
-        <v>1.950910291781952</v>
+        <v>2.50341448993737</v>
       </c>
       <c r="H14">
-        <v>1.190206248528938</v>
+        <v>2.002895995005161</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1158339079426227</v>
+        <v>0.260036808458679</v>
       </c>
       <c r="K14">
-        <v>1.239725424058435</v>
+        <v>0.573617989508449</v>
       </c>
       <c r="L14">
-        <v>0.1894082599931863</v>
+        <v>0.2926572330174366</v>
       </c>
       <c r="M14">
-        <v>0.3076579403802029</v>
+        <v>0.2805124112337367</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.500461689877199</v>
+        <v>1.04399382691247</v>
       </c>
       <c r="C15">
-        <v>0.1213558349628343</v>
+        <v>0.1163922259396628</v>
       </c>
       <c r="D15">
-        <v>0.03616595718603577</v>
+        <v>0.06738230730499595</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.234672171481691</v>
+        <v>3.240989906403854</v>
       </c>
       <c r="G15">
-        <v>1.940984441066121</v>
+        <v>2.501750676901736</v>
       </c>
       <c r="H15">
-        <v>1.186452762977837</v>
+        <v>2.002628178039885</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1158628630497702</v>
+        <v>0.2601088222819747</v>
       </c>
       <c r="K15">
-        <v>1.225500574388406</v>
+        <v>0.5701053317797857</v>
       </c>
       <c r="L15">
-        <v>0.1879104809137289</v>
+        <v>0.2924312957878357</v>
       </c>
       <c r="M15">
-        <v>0.3044702798757939</v>
+        <v>0.2798451180711368</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.405251998699413</v>
+        <v>1.022342319490974</v>
       </c>
       <c r="C16">
-        <v>0.1185045402304112</v>
+        <v>0.115326210148389</v>
       </c>
       <c r="D16">
-        <v>0.03422362242656618</v>
+        <v>0.06709514104579739</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.175252664929829</v>
+        <v>3.232768671042237</v>
       </c>
       <c r="G16">
-        <v>1.885103381411</v>
+        <v>2.492490136451465</v>
       </c>
       <c r="H16">
-        <v>1.165464610424237</v>
+        <v>2.001273689041113</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1160584052336553</v>
+        <v>0.2605362223309271</v>
       </c>
       <c r="K16">
-        <v>1.144371674571119</v>
+        <v>0.5500548912897898</v>
       </c>
       <c r="L16">
-        <v>0.1793995967131181</v>
+        <v>0.2911693087494882</v>
       </c>
       <c r="M16">
-        <v>0.2863173258646015</v>
+        <v>0.2760597684905193</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.347295888590708</v>
+        <v>1.009195299474982</v>
       </c>
       <c r="C17">
-        <v>0.1167588192917393</v>
+        <v>0.1146659170251638</v>
       </c>
       <c r="D17">
-        <v>0.0330394106043812</v>
+        <v>0.06692544521870047</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.139715542167451</v>
+        <v>3.22802209876788</v>
       </c>
       <c r="G17">
-        <v>1.851679372345558</v>
+        <v>2.487053673618846</v>
       </c>
       <c r="H17">
-        <v>1.15303853869969</v>
+        <v>2.000603690891523</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1162042696138315</v>
+        <v>0.2608115657704353</v>
       </c>
       <c r="K17">
-        <v>1.094925931870193</v>
+        <v>0.5378254612734565</v>
       </c>
       <c r="L17">
-        <v>0.1742403814248092</v>
+        <v>0.2904244215710463</v>
       </c>
       <c r="M17">
-        <v>0.2752779000259125</v>
+        <v>0.2737721373793249</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.314117034483331</v>
+        <v>1.001683405229329</v>
       </c>
       <c r="C18">
-        <v>0.1157556664235244</v>
+        <v>0.1142838044373846</v>
       </c>
       <c r="D18">
-        <v>0.03236086254546677</v>
+        <v>0.06683022915224512</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.119598105837412</v>
+        <v>3.225401151788063</v>
       </c>
       <c r="G18">
-        <v>1.832756310376055</v>
+        <v>2.484016643755041</v>
       </c>
       <c r="H18">
-        <v>1.146050461567455</v>
+        <v>2.000277503654019</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1162974880115009</v>
+        <v>0.2609747733074492</v>
       </c>
       <c r="K18">
-        <v>1.066596756689336</v>
+        <v>0.5308175435542921</v>
       </c>
       <c r="L18">
-        <v>0.1712947136907559</v>
+        <v>0.2900067746657982</v>
       </c>
       <c r="M18">
-        <v>0.2689619313836644</v>
+        <v>0.2724690847271845</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.302909101039546</v>
+        <v>0.9991485943347413</v>
       </c>
       <c r="C19">
-        <v>0.1154161472528941</v>
+        <v>0.114154027187233</v>
       </c>
       <c r="D19">
-        <v>0.03213154973131083</v>
+        <v>0.06679840182855656</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.112840837614783</v>
+        <v>3.224532496559519</v>
       </c>
       <c r="G19">
-        <v>1.826399837440704</v>
+        <v>2.483003794370717</v>
       </c>
       <c r="H19">
-        <v>1.143711177189999</v>
+        <v>2.000177229394438</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1163306327232263</v>
+        <v>0.261030863920297</v>
       </c>
       <c r="K19">
-        <v>1.057023223275309</v>
+        <v>0.528449278355879</v>
       </c>
       <c r="L19">
-        <v>0.1703010106634935</v>
+        <v>0.2898672225487147</v>
       </c>
       <c r="M19">
-        <v>0.2668290458983478</v>
+        <v>0.2720300833294544</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.353449050275259</v>
+        <v>1.010589658333572</v>
       </c>
       <c r="C20">
-        <v>0.1169445497619108</v>
+        <v>0.1147364473480437</v>
       </c>
       <c r="D20">
-        <v>0.03316520237074627</v>
+        <v>0.06694326266286055</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.143464843894662</v>
+        <v>3.228516083390204</v>
       </c>
       <c r="G20">
-        <v>1.85520590942798</v>
+        <v>2.487623092095788</v>
       </c>
       <c r="H20">
-        <v>1.154344717344117</v>
+        <v>2.000668889405716</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1161877730139764</v>
+        <v>0.2607817544792113</v>
       </c>
       <c r="K20">
-        <v>1.100177871799502</v>
+        <v>0.5391246028326009</v>
       </c>
       <c r="L20">
-        <v>0.1747873131972426</v>
+        <v>0.2905025996531023</v>
       </c>
       <c r="M20">
-        <v>0.2764495431852438</v>
+        <v>0.2740143426034933</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.525191214834535</v>
+        <v>1.049625594524571</v>
       </c>
       <c r="C21">
-        <v>0.1220933316613042</v>
+        <v>0.1166654977383743</v>
       </c>
       <c r="D21">
-        <v>0.03666980368927852</v>
+        <v>0.06745844033245163</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.250307414830587</v>
+        <v>3.243204213452771</v>
       </c>
       <c r="G21">
-        <v>1.955688203269403</v>
+        <v>2.504217182184078</v>
       </c>
       <c r="H21">
-        <v>1.192015602986487</v>
+        <v>2.003027608002441</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1158205544826174</v>
+        <v>0.2600025360225828</v>
       </c>
       <c r="K21">
-        <v>1.246553806754633</v>
+        <v>0.575303802030902</v>
       </c>
       <c r="L21">
-        <v>0.1901278014080958</v>
+        <v>0.2927661548325773</v>
       </c>
       <c r="M21">
-        <v>0.3091886049778836</v>
+        <v>0.2808330787734477</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.63904518174283</v>
+        <v>1.075579519664586</v>
       </c>
       <c r="C22">
-        <v>0.125473999854826</v>
+        <v>0.117905591945842</v>
       </c>
       <c r="D22">
-        <v>0.03898588786258017</v>
+        <v>0.06781619025593955</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.323305808375579</v>
+        <v>3.25377471460682</v>
       </c>
       <c r="G22">
-        <v>2.024339543591651</v>
+        <v>2.515862792956625</v>
       </c>
       <c r="H22">
-        <v>1.218186066981701</v>
+        <v>2.005095415598674</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1156679153719082</v>
+        <v>0.2595362269782271</v>
       </c>
       <c r="K22">
-        <v>1.343389632089043</v>
+        <v>0.5991798784655771</v>
       </c>
       <c r="L22">
-        <v>0.2003691654235809</v>
+        <v>0.2943411060414149</v>
       </c>
       <c r="M22">
-        <v>0.3309278510536302</v>
+        <v>0.2854022135849164</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.57812052276924</v>
+        <v>1.061687146134034</v>
       </c>
       <c r="C23">
-        <v>0.1236678686385844</v>
+        <v>0.117245615511834</v>
       </c>
       <c r="D23">
-        <v>0.037747269569401</v>
+        <v>0.06762333665239595</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.284039903669893</v>
+        <v>3.248044247598301</v>
       </c>
       <c r="G23">
-        <v>1.987411294014777</v>
+        <v>2.509574071239086</v>
       </c>
       <c r="H23">
-        <v>1.204069718636703</v>
+        <v>2.003943670888219</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1157411667990829</v>
+        <v>0.2597811802730838</v>
       </c>
       <c r="K23">
-        <v>1.291589988895879</v>
+        <v>0.5864157273938133</v>
       </c>
       <c r="L23">
-        <v>0.1948823450745607</v>
+        <v>0.2934918037389664</v>
       </c>
       <c r="M23">
-        <v>0.3192916885110577</v>
+        <v>0.2829533015113981</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.35066676943498</v>
+        <v>1.009959123810575</v>
       </c>
       <c r="C24">
-        <v>0.1168605795825854</v>
+        <v>0.1147045683818604</v>
       </c>
       <c r="D24">
-        <v>0.0331083248677615</v>
+        <v>0.06693520009238796</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.141768811842184</v>
+        <v>3.228292416752709</v>
       </c>
       <c r="G24">
-        <v>1.853610653038402</v>
+        <v>2.487365382430824</v>
       </c>
       <c r="H24">
-        <v>1.153753710021419</v>
+        <v>2.000639229345694</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1161952020223573</v>
+        <v>0.2607952168719123</v>
       </c>
       <c r="K24">
-        <v>1.097803166992406</v>
+        <v>0.5385371894459468</v>
       </c>
       <c r="L24">
-        <v>0.1745399819280351</v>
+        <v>0.2904672223234144</v>
       </c>
       <c r="M24">
-        <v>0.2759197480141182</v>
+        <v>0.2739048038090317</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.111175879318637</v>
+        <v>0.9560722659437602</v>
       </c>
       <c r="C25">
-        <v>0.1095503287046</v>
+        <v>0.1118745157368863</v>
       </c>
       <c r="D25">
-        <v>0.02820180815210449</v>
+        <v>0.0662843771749948</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.00049396653624</v>
+        <v>3.211160594558393</v>
       </c>
       <c r="G25">
-        <v>1.720670171973097</v>
+        <v>2.466845818143213</v>
       </c>
       <c r="H25">
-        <v>1.105496387697315</v>
+        <v>1.999337729269513</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.117039188960927</v>
+        <v>0.2620740310820153</v>
       </c>
       <c r="K25">
-        <v>0.8929154253726495</v>
+        <v>0.4878921882372538</v>
       </c>
       <c r="L25">
-        <v>0.1534194377233007</v>
+        <v>0.2876176330240554</v>
       </c>
       <c r="M25">
-        <v>0.2304003144731013</v>
+        <v>0.2646316800467652</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9180432866803869</v>
+        <v>0.9387758283483549</v>
       </c>
       <c r="C2">
-        <v>0.1097131679421821</v>
+        <v>0.1041606607680094</v>
       </c>
       <c r="D2">
-        <v>0.06588484050381638</v>
+        <v>0.02465950234596903</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.202136094421334</v>
+        <v>1.905504753152869</v>
       </c>
       <c r="G2">
-        <v>2.454686398660058</v>
+        <v>1.631144924673023</v>
       </c>
       <c r="H2">
-        <v>2.000327881350913</v>
+        <v>1.074491288943804</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2631755003609335</v>
+        <v>0.1179444102384792</v>
       </c>
       <c r="K2">
-        <v>0.4514623245620726</v>
+        <v>0.744704952159168</v>
       </c>
       <c r="L2">
-        <v>0.2858766676266171</v>
+        <v>0.1384684339307896</v>
       </c>
       <c r="M2">
-        <v>0.2582246334812339</v>
+        <v>0.1977583700712948</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.893301933005489</v>
+        <v>0.8239020798613126</v>
       </c>
       <c r="C3">
-        <v>0.1081995496284662</v>
+        <v>0.1004881605131587</v>
       </c>
       <c r="D3">
-        <v>0.06566430498912013</v>
+        <v>0.02229685657055214</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.198259940160511</v>
+        <v>1.846111975872418</v>
       </c>
       <c r="G3">
-        <v>2.448282934897591</v>
+        <v>1.575043948844879</v>
       </c>
       <c r="H3">
-        <v>2.002215772316163</v>
+        <v>1.056012227710013</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2640221064714581</v>
+        <v>0.1187255343633282</v>
       </c>
       <c r="K3">
-        <v>0.4273106364189232</v>
+        <v>0.6455039291623592</v>
       </c>
       <c r="L3">
-        <v>0.2849207388460755</v>
+        <v>0.1286622534649453</v>
       </c>
       <c r="M3">
-        <v>0.2541460332465988</v>
+        <v>0.1760861002154499</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8786210122522107</v>
+        <v>0.7541901063462717</v>
       </c>
       <c r="C4">
-        <v>0.1072459505235557</v>
+        <v>0.09821888111288501</v>
       </c>
       <c r="D4">
-        <v>0.06555386845751698</v>
+        <v>0.02086321707630034</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.196985381724474</v>
+        <v>1.811905561408508</v>
       </c>
       <c r="G4">
-        <v>2.44525684978791</v>
+        <v>1.542658490459317</v>
       </c>
       <c r="H4">
-        <v>2.003975794872446</v>
+        <v>1.045828069448646</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2645914505129063</v>
+        <v>0.1192849944221166</v>
       </c>
       <c r="K4">
-        <v>0.4127471068864139</v>
+        <v>0.5850846242181831</v>
       </c>
       <c r="L4">
-        <v>0.2844446862116214</v>
+        <v>0.1227877232494237</v>
       </c>
       <c r="M4">
-        <v>0.2517722038863468</v>
+        <v>0.1629722665005033</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8727671823033631</v>
+        <v>0.7259683049495607</v>
       </c>
       <c r="C5">
-        <v>0.1068512432897997</v>
+        <v>0.0972899095910762</v>
       </c>
       <c r="D5">
-        <v>0.06551517721165823</v>
+        <v>0.02028305741827907</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.196744162014198</v>
+        <v>1.798507573947049</v>
       </c>
       <c r="G5">
-        <v>2.4442514707915</v>
+        <v>1.529952552590331</v>
       </c>
       <c r="H5">
-        <v>2.004844245172976</v>
+        <v>1.041958051423208</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2648359365946398</v>
+        <v>0.1195326596657473</v>
       </c>
       <c r="K5">
-        <v>0.4068794218680836</v>
+        <v>0.5605699962863895</v>
       </c>
       <c r="L5">
-        <v>0.2842786553075669</v>
+        <v>0.1204286794848599</v>
       </c>
       <c r="M5">
-        <v>0.2508377539848219</v>
+        <v>0.1576729101738472</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8718029480216387</v>
+        <v>0.7212927906492723</v>
       </c>
       <c r="C6">
-        <v>0.10678533312824</v>
+        <v>0.09713538247072151</v>
       </c>
       <c r="D6">
-        <v>0.06550913479170717</v>
+        <v>0.02018696136740772</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.196720914783256</v>
+        <v>1.796314783311217</v>
       </c>
       <c r="G6">
-        <v>2.444098286594283</v>
+        <v>1.527871665900506</v>
       </c>
       <c r="H6">
-        <v>2.004997588495513</v>
+        <v>1.041332015133165</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2648772873077334</v>
+        <v>0.1195749617550455</v>
       </c>
       <c r="K6">
-        <v>0.4059091558585379</v>
+        <v>0.5565053404620244</v>
       </c>
       <c r="L6">
-        <v>0.2842527773399581</v>
+        <v>0.1200390131638258</v>
       </c>
       <c r="M6">
-        <v>0.250684579699108</v>
+        <v>0.1567955424137679</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8785415435209813</v>
+        <v>0.7538087681912771</v>
       </c>
       <c r="C7">
-        <v>0.1072406521122424</v>
+        <v>0.09820637055190318</v>
       </c>
       <c r="D7">
-        <v>0.06555332105076417</v>
+        <v>0.0208553766839259</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.196981001970713</v>
+        <v>1.811722714088859</v>
       </c>
       <c r="G7">
-        <v>2.44524236859769</v>
+        <v>1.542485178386443</v>
       </c>
       <c r="H7">
-        <v>2.003986894608232</v>
+        <v>1.045774758364217</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2645946972049344</v>
+        <v>0.1192882553443866</v>
       </c>
       <c r="K7">
-        <v>0.4126677013195348</v>
+        <v>0.5847536004650919</v>
       </c>
       <c r="L7">
-        <v>0.2844423337272275</v>
+        <v>0.1227557696657868</v>
       </c>
       <c r="M7">
-        <v>0.2517594682008522</v>
+        <v>0.1629006217810876</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9094067859004724</v>
+        <v>0.8989844932551136</v>
       </c>
       <c r="C8">
-        <v>0.109196292399858</v>
+        <v>0.1028969772300599</v>
       </c>
       <c r="D8">
-        <v>0.06580363609417716</v>
+        <v>0.02384118591877638</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.200570284528737</v>
+        <v>1.884540015804347</v>
       </c>
       <c r="G8">
-        <v>2.452290529001488</v>
+        <v>1.611356968411272</v>
       </c>
       <c r="H8">
-        <v>2.000854199859575</v>
+        <v>1.067871013525959</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2634571435683917</v>
+        <v>0.1181969235247848</v>
       </c>
       <c r="K8">
-        <v>0.4430798207154112</v>
+        <v>0.7103882859038322</v>
       </c>
       <c r="L8">
-        <v>0.2855240947277338</v>
+        <v>0.1350556343703175</v>
       </c>
       <c r="M8">
-        <v>0.2567913171762228</v>
+        <v>0.1902432817546078</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9739685960793167</v>
+        <v>1.191167890280639</v>
       </c>
       <c r="C9">
-        <v>0.1128398158241239</v>
+        <v>0.1120117136106487</v>
       </c>
       <c r="D9">
-        <v>0.06649130356065314</v>
+        <v>0.02984281209409545</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.216373924029241</v>
+        <v>2.046587959649884</v>
       </c>
       <c r="G9">
-        <v>2.47329939836996</v>
+        <v>1.764062344497319</v>
       </c>
       <c r="H9">
-        <v>1.99947364459203</v>
+        <v>1.121007816961992</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2616184758400806</v>
+        <v>0.1167094832700961</v>
       </c>
       <c r="K9">
-        <v>0.5048185409211499</v>
+        <v>0.9614631471381472</v>
       </c>
       <c r="L9">
-        <v>0.2885221836083858</v>
+        <v>0.1604339606728473</v>
       </c>
       <c r="M9">
-        <v>0.2676901259333775</v>
+        <v>0.2455843774918556</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.023849240943576</v>
+        <v>1.411887051689376</v>
       </c>
       <c r="C10">
-        <v>0.1154012388522574</v>
+        <v>0.1187038900195816</v>
       </c>
       <c r="D10">
-        <v>0.06711482742188934</v>
+        <v>0.03435910736710213</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.23332507531299</v>
+        <v>2.179352381312256</v>
       </c>
       <c r="G10">
-        <v>2.493122653842988</v>
+        <v>1.888959116815073</v>
       </c>
       <c r="H10">
-        <v>2.001358156822192</v>
+        <v>1.166904502994868</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2605054587836939</v>
+        <v>0.1160430383656532</v>
       </c>
       <c r="K10">
-        <v>0.5514538885432501</v>
+        <v>1.150029382059188</v>
       </c>
       <c r="L10">
-        <v>0.2912557662025108</v>
+        <v>0.1799913202727979</v>
       </c>
       <c r="M10">
-        <v>0.2763225260437068</v>
+        <v>0.2875816968522358</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.047070331969167</v>
+        <v>1.513972306928622</v>
       </c>
       <c r="C11">
-        <v>0.1165417030788731</v>
+        <v>0.1217589055589627</v>
       </c>
       <c r="D11">
-        <v>0.06742382716736728</v>
+        <v>0.03644126036837747</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.242195834615899</v>
+        <v>2.243204227433807</v>
       </c>
       <c r="G11">
-        <v>2.503095257227642</v>
+        <v>1.949008194881799</v>
       </c>
       <c r="H11">
-        <v>2.002844082862538</v>
+        <v>1.18948640319843</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2600505227899959</v>
+        <v>0.1158393289666684</v>
       </c>
       <c r="K11">
-        <v>0.5729459560070325</v>
+        <v>1.237003632968793</v>
       </c>
       <c r="L11">
-        <v>0.2926139002693944</v>
+        <v>0.1891215517223443</v>
       </c>
       <c r="M11">
-        <v>0.2803846550611766</v>
+        <v>0.3070479053625732</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05593946510001</v>
+        <v>1.552903194861187</v>
       </c>
       <c r="C12">
-        <v>0.1169700279813739</v>
+        <v>0.1229183605010036</v>
       </c>
       <c r="D12">
-        <v>0.06754445283610977</v>
+        <v>0.03723408777890569</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.245721591507831</v>
+        <v>2.267923607676067</v>
       </c>
       <c r="G12">
-        <v>2.507008986465223</v>
+        <v>1.972254945317445</v>
       </c>
       <c r="H12">
-        <v>2.003497063917024</v>
+        <v>1.198301916113337</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2598856193219845</v>
+        <v>0.1157771196537425</v>
       </c>
       <c r="K12">
-        <v>0.5811241661692748</v>
+        <v>1.270137326509115</v>
       </c>
       <c r="L12">
-        <v>0.2931446013589891</v>
+        <v>0.1926156583012713</v>
       </c>
       <c r="M12">
-        <v>0.2819422375971286</v>
+        <v>0.3144775146556498</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.054025973625215</v>
+        <v>1.544506032825353</v>
       </c>
       <c r="C13">
-        <v>0.1168779379621654</v>
+        <v>0.1226685182899274</v>
       </c>
       <c r="D13">
-        <v>0.06751831370416994</v>
+        <v>0.03706313776511649</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.24495484988212</v>
+        <v>2.262575103113107</v>
       </c>
       <c r="G13">
-        <v>2.506159987363446</v>
+        <v>1.967225054925791</v>
       </c>
       <c r="H13">
-        <v>2.003352418635075</v>
+        <v>1.196391260392971</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2599208066900971</v>
+        <v>0.1157898429126405</v>
       </c>
       <c r="K13">
-        <v>0.5793610838319978</v>
+        <v>1.262992118134008</v>
       </c>
       <c r="L13">
-        <v>0.2930295769647628</v>
+        <v>0.1918614560104004</v>
       </c>
       <c r="M13">
-        <v>0.281605925656514</v>
+        <v>0.3128747233839135</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.047798483957166</v>
+        <v>1.517169501933836</v>
       </c>
       <c r="C14">
-        <v>0.1165770125799028</v>
+        <v>0.1218542364014397</v>
       </c>
       <c r="D14">
-        <v>0.06743367886205931</v>
+        <v>0.0365063970307915</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.242482562877058</v>
+        <v>2.245226822551899</v>
       </c>
       <c r="G14">
-        <v>2.50341448993737</v>
+        <v>1.950910291781923</v>
       </c>
       <c r="H14">
-        <v>2.002895995005161</v>
+        <v>1.190206248529051</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.260036808458679</v>
+        <v>0.1158339079425303</v>
       </c>
       <c r="K14">
-        <v>0.573617989508449</v>
+        <v>1.239725424058435</v>
       </c>
       <c r="L14">
-        <v>0.2926572330174366</v>
+        <v>0.1894082599932645</v>
       </c>
       <c r="M14">
-        <v>0.2805124112337367</v>
+        <v>0.3076579403802242</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.04399382691247</v>
+        <v>1.50046168987717</v>
       </c>
       <c r="C15">
-        <v>0.1163922259396628</v>
+        <v>0.1213558349630333</v>
       </c>
       <c r="D15">
-        <v>0.06738230730499595</v>
+        <v>0.03616595718593629</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.240989906403854</v>
+        <v>2.234672171481705</v>
       </c>
       <c r="G15">
-        <v>2.501750676901736</v>
+        <v>1.940984441066036</v>
       </c>
       <c r="H15">
-        <v>2.002628178039885</v>
+        <v>1.186452762977837</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2601088222819747</v>
+        <v>0.1158628630497844</v>
       </c>
       <c r="K15">
-        <v>0.5701053317797857</v>
+        <v>1.225500574388377</v>
       </c>
       <c r="L15">
-        <v>0.2924312957878357</v>
+        <v>0.187910480913736</v>
       </c>
       <c r="M15">
-        <v>0.2798451180711368</v>
+        <v>0.3044702798757939</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.022342319490974</v>
+        <v>1.405251998699555</v>
       </c>
       <c r="C16">
-        <v>0.115326210148389</v>
+        <v>0.1185045402304681</v>
       </c>
       <c r="D16">
-        <v>0.06709514104579739</v>
+        <v>0.03422362242666566</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.232768671042237</v>
+        <v>2.175252664929801</v>
       </c>
       <c r="G16">
-        <v>2.492490136451465</v>
+        <v>1.885103381410943</v>
       </c>
       <c r="H16">
-        <v>2.001273689041113</v>
+        <v>1.165464610424209</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2605362223309271</v>
+        <v>0.1160584052336553</v>
       </c>
       <c r="K16">
-        <v>0.5500548912897898</v>
+        <v>1.144371674571175</v>
       </c>
       <c r="L16">
-        <v>0.2911693087494882</v>
+        <v>0.179399596713175</v>
       </c>
       <c r="M16">
-        <v>0.2760597684905193</v>
+        <v>0.2863173258646015</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.009195299474982</v>
+        <v>1.347295888590651</v>
       </c>
       <c r="C17">
-        <v>0.1146659170251638</v>
+        <v>0.1167588192920093</v>
       </c>
       <c r="D17">
-        <v>0.06692544521870047</v>
+        <v>0.03303941060436699</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.22802209876788</v>
+        <v>2.139715542167437</v>
       </c>
       <c r="G17">
-        <v>2.487053673618846</v>
+        <v>1.851679372345529</v>
       </c>
       <c r="H17">
-        <v>2.000603690891523</v>
+        <v>1.153038538699661</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2608115657704353</v>
+        <v>0.1162042696137533</v>
       </c>
       <c r="K17">
-        <v>0.5378254612734565</v>
+        <v>1.094925931870222</v>
       </c>
       <c r="L17">
-        <v>0.2904244215710463</v>
+        <v>0.1742403814248448</v>
       </c>
       <c r="M17">
-        <v>0.2737721373793249</v>
+        <v>0.2752779000259125</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.001683405229329</v>
+        <v>1.314117034483331</v>
       </c>
       <c r="C18">
-        <v>0.1142838044373846</v>
+        <v>0.1157556664236878</v>
       </c>
       <c r="D18">
-        <v>0.06683022915224512</v>
+        <v>0.03236086254545256</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.225401151788063</v>
+        <v>2.119598105837426</v>
       </c>
       <c r="G18">
-        <v>2.484016643755041</v>
+        <v>1.832756310376027</v>
       </c>
       <c r="H18">
-        <v>2.000277503654019</v>
+        <v>1.146050461567341</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2609747733074492</v>
+        <v>0.1162974880116465</v>
       </c>
       <c r="K18">
-        <v>0.5308175435542921</v>
+        <v>1.066596756689279</v>
       </c>
       <c r="L18">
-        <v>0.2900067746657982</v>
+        <v>0.1712947136907701</v>
       </c>
       <c r="M18">
-        <v>0.2724690847271845</v>
+        <v>0.2689619313836573</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9991485943347413</v>
+        <v>1.302909101039461</v>
       </c>
       <c r="C19">
-        <v>0.114154027187233</v>
+        <v>0.1154161472530646</v>
       </c>
       <c r="D19">
-        <v>0.06679840182855656</v>
+        <v>0.03213154973131083</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.224532496559519</v>
+        <v>2.112840837614769</v>
       </c>
       <c r="G19">
-        <v>2.483003794370717</v>
+        <v>1.826399837440704</v>
       </c>
       <c r="H19">
-        <v>2.000177229394438</v>
+        <v>1.143711177189971</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.261030863920297</v>
+        <v>0.1163306327233684</v>
       </c>
       <c r="K19">
-        <v>0.528449278355879</v>
+        <v>1.057023223275337</v>
       </c>
       <c r="L19">
-        <v>0.2898672225487147</v>
+        <v>0.1703010106636214</v>
       </c>
       <c r="M19">
-        <v>0.2720300833294544</v>
+        <v>0.2668290458983371</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.010589658333572</v>
+        <v>1.353449050274946</v>
       </c>
       <c r="C20">
-        <v>0.1147364473480437</v>
+        <v>0.1169445497619392</v>
       </c>
       <c r="D20">
-        <v>0.06694326266286055</v>
+        <v>0.03316520237085996</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.228516083390204</v>
+        <v>2.143464843894677</v>
       </c>
       <c r="G20">
-        <v>2.487623092095788</v>
+        <v>1.85520590942798</v>
       </c>
       <c r="H20">
-        <v>2.000668889405716</v>
+        <v>1.154344717344003</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2607817544792113</v>
+        <v>0.1161877730138556</v>
       </c>
       <c r="K20">
-        <v>0.5391246028326009</v>
+        <v>1.100177871799701</v>
       </c>
       <c r="L20">
-        <v>0.2905025996531023</v>
+        <v>0.1747873131971431</v>
       </c>
       <c r="M20">
-        <v>0.2740143426034933</v>
+        <v>0.2764495431852438</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049625594524571</v>
+        <v>1.525191214834678</v>
       </c>
       <c r="C21">
-        <v>0.1166654977383743</v>
+        <v>0.122093331661361</v>
       </c>
       <c r="D21">
-        <v>0.06745844033245163</v>
+        <v>0.03666980368930695</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.243204213452771</v>
+        <v>2.250307414830573</v>
       </c>
       <c r="G21">
-        <v>2.504217182184078</v>
+        <v>1.955688203269489</v>
       </c>
       <c r="H21">
-        <v>2.003027608002441</v>
+        <v>1.192015602986487</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2600025360225828</v>
+        <v>0.115820554482621</v>
       </c>
       <c r="K21">
-        <v>0.575303802030902</v>
+        <v>1.246553806754719</v>
       </c>
       <c r="L21">
-        <v>0.2927661548325773</v>
+        <v>0.1901278014080461</v>
       </c>
       <c r="M21">
-        <v>0.2808330787734477</v>
+        <v>0.3091886049778836</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.075579519664586</v>
+        <v>1.639045181742944</v>
       </c>
       <c r="C22">
-        <v>0.117905591945842</v>
+        <v>0.1254739998546555</v>
       </c>
       <c r="D22">
-        <v>0.06781619025593955</v>
+        <v>0.03898588786248069</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.25377471460682</v>
+        <v>2.323305808375565</v>
       </c>
       <c r="G22">
-        <v>2.515862792956625</v>
+        <v>2.024339543591651</v>
       </c>
       <c r="H22">
-        <v>2.005095415598674</v>
+        <v>1.218186066981758</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2595362269782271</v>
+        <v>0.1156679153720361</v>
       </c>
       <c r="K22">
-        <v>0.5991798784655771</v>
+        <v>1.343389632089099</v>
       </c>
       <c r="L22">
-        <v>0.2943411060414149</v>
+        <v>0.2003691654236519</v>
       </c>
       <c r="M22">
-        <v>0.2854022135849164</v>
+        <v>0.3309278510536302</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.061687146134034</v>
+        <v>1.578120522769268</v>
       </c>
       <c r="C23">
-        <v>0.117245615511834</v>
+        <v>0.1236678686385986</v>
       </c>
       <c r="D23">
-        <v>0.06762333665239595</v>
+        <v>0.03774726956963548</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.248044247598301</v>
+        <v>2.284039903669864</v>
       </c>
       <c r="G23">
-        <v>2.509574071239086</v>
+        <v>1.98741129401472</v>
       </c>
       <c r="H23">
-        <v>2.003943670888219</v>
+        <v>1.20406971863693</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2597811802730838</v>
+        <v>0.1157411667990651</v>
       </c>
       <c r="K23">
-        <v>0.5864157273938133</v>
+        <v>1.291589988895794</v>
       </c>
       <c r="L23">
-        <v>0.2934918037389664</v>
+        <v>0.1948823450745323</v>
       </c>
       <c r="M23">
-        <v>0.2829533015113981</v>
+        <v>0.3192916885110577</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.009959123810575</v>
+        <v>1.350666769435009</v>
       </c>
       <c r="C24">
-        <v>0.1147045683818604</v>
+        <v>0.1168605795822728</v>
       </c>
       <c r="D24">
-        <v>0.06693520009238796</v>
+        <v>0.03310832486742754</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.228292416752709</v>
+        <v>2.141768811842169</v>
       </c>
       <c r="G24">
-        <v>2.487365382430824</v>
+        <v>1.853610653038373</v>
       </c>
       <c r="H24">
-        <v>2.000639229345694</v>
+        <v>1.153753710021419</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2607952168719123</v>
+        <v>0.1161952020223573</v>
       </c>
       <c r="K24">
-        <v>0.5385371894459468</v>
+        <v>1.097803166992321</v>
       </c>
       <c r="L24">
-        <v>0.2904672223234144</v>
+        <v>0.174539981927964</v>
       </c>
       <c r="M24">
-        <v>0.2739048038090317</v>
+        <v>0.2759197480141324</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9560722659437602</v>
+        <v>1.111175879318637</v>
       </c>
       <c r="C25">
-        <v>0.1118745157368863</v>
+        <v>0.1095503287042803</v>
       </c>
       <c r="D25">
-        <v>0.0662843771749948</v>
+        <v>0.02820180815212581</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.211160594558393</v>
+        <v>2.000493966536268</v>
       </c>
       <c r="G25">
-        <v>2.466845818143213</v>
+        <v>1.720670171973097</v>
       </c>
       <c r="H25">
-        <v>1.999337729269513</v>
+        <v>1.105496387697286</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2620740310820153</v>
+        <v>0.1170391889608737</v>
       </c>
       <c r="K25">
-        <v>0.4878921882372538</v>
+        <v>0.8929154253725926</v>
       </c>
       <c r="L25">
-        <v>0.2876176330240554</v>
+        <v>0.1534194377232794</v>
       </c>
       <c r="M25">
-        <v>0.2646316800467652</v>
+        <v>0.2304003144731013</v>
       </c>
       <c r="N25">
         <v>0</v>
